--- a/data/trans_dic/P62-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P62-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7246289908322919</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7759886326332071</v>
+        <v>0.7759886326332072</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3884868713620129</v>
@@ -697,7 +697,7 @@
         <v>0.5725523138370437</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.641087684693316</v>
+        <v>0.6410876846933161</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.755494926964401</v>
+        <v>0.7529421229723561</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6673546196844203</v>
+        <v>0.6677979427749234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6887435324970038</v>
+        <v>0.6886117473618287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.739092262009954</v>
+        <v>0.7377985739236482</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3595457290712208</v>
+        <v>0.3610304757781609</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4219862408013206</v>
+        <v>0.4236464201151467</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4313875396873404</v>
+        <v>0.4389531241943886</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5365625878922982</v>
+        <v>0.5352842500969966</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5098302505033662</v>
+        <v>0.5105405193024704</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5303987609411375</v>
+        <v>0.5301773694651056</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5462624567999222</v>
+        <v>0.5477982076891964</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6169957004375823</v>
+        <v>0.6171915640153386</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8199125185656116</v>
+        <v>0.8189831020282705</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7360133673747585</v>
+        <v>0.7339642433947426</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7649549174507296</v>
+        <v>0.7588190730228198</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8145957919324306</v>
+        <v>0.8135872679582481</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4147892617875591</v>
+        <v>0.4179201688366618</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4827811740383489</v>
+        <v>0.4853103780374657</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5037205736980888</v>
+        <v>0.5106847367720242</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5892495744821075</v>
+        <v>0.5930064937513081</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5542405677653546</v>
+        <v>0.5547070519472876</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5742359670482663</v>
+        <v>0.5756295870103365</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.598181008577898</v>
+        <v>0.5987859118563323</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6628514840560512</v>
+        <v>0.6638316666479908</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2629007735655419</v>
+        <v>0.2642276746460024</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2390905091061059</v>
+        <v>0.2394612760329355</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3131205355882432</v>
+        <v>0.3170473498634613</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.415283683369587</v>
+        <v>0.4126467400603028</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06947100611758664</v>
+        <v>0.06927568578043289</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1274451686390249</v>
+        <v>0.1249120493875838</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1779530794822272</v>
+        <v>0.1739165748873157</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2339607657336448</v>
+        <v>0.2357243081510014</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1451178386334054</v>
+        <v>0.1439450827511469</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1841271470386133</v>
+        <v>0.1858964769756608</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2478935728693145</v>
+        <v>0.2487721349525582</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3194801354665318</v>
+        <v>0.3220181233682766</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3399761016225744</v>
+        <v>0.3396507152650087</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2971850135412469</v>
+        <v>0.2975716733469176</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3734459677317199</v>
+        <v>0.3732249226000137</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4890166238825291</v>
+        <v>0.486199057140809</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1067373743107036</v>
+        <v>0.1054732233240868</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1720170884362297</v>
+        <v>0.1681500001526085</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2221178276075249</v>
+        <v>0.2210656789140841</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2768271298202328</v>
+        <v>0.2781088238166047</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1838128475889363</v>
+        <v>0.1821064992619996</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2215033627155919</v>
+        <v>0.2230683155975113</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2838611331395955</v>
+        <v>0.2860876055667759</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3597969128214583</v>
+        <v>0.3614974879429192</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2224692765602154</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3455612217069072</v>
+        <v>0.3455612217069073</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3089956332441877</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.342776103921947</v>
+        <v>0.3374919878202642</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2054270868107979</v>
+        <v>0.2084645034135128</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2888697892334457</v>
+        <v>0.286213645798602</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4917399453887707</v>
+        <v>0.4950565654753673</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1633339191779567</v>
+        <v>0.1660863207803563</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1147662478936271</v>
+        <v>0.1117068671837963</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.173908242501448</v>
+        <v>0.1653116024001322</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2963399960915968</v>
+        <v>0.293897601672188</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2495208369466404</v>
+        <v>0.2575369178639235</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1641166288280744</v>
+        <v>0.1710862155147606</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.237214277877794</v>
+        <v>0.2411004982547622</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4030383340720886</v>
+        <v>0.4060070236859672</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5089528051012595</v>
+        <v>0.5052230403589044</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3601561132149546</v>
+        <v>0.3698511900475053</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4336329264845019</v>
+        <v>0.4293370776181984</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6395785723729971</v>
+        <v>0.6415093271660142</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2931472449274289</v>
+        <v>0.2880792445706776</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2191324207180079</v>
+        <v>0.2219665079193926</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2847599135238866</v>
+        <v>0.2826738241856448</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3942892932565061</v>
+        <v>0.4007028676847297</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3578626903837654</v>
+        <v>0.363898948422308</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2586844315510028</v>
+        <v>0.2628186083319721</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3298680411117145</v>
+        <v>0.3295635474538534</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4911803036177989</v>
+        <v>0.4939893033649689</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.3021885189526116</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3681024596512552</v>
+        <v>0.3681024596512551</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3561388928180357</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5214447426436543</v>
+        <v>0.5216836331317521</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.417438384029848</v>
+        <v>0.4190181397877811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4399562372993049</v>
+        <v>0.4405499410690029</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5221291212837691</v>
+        <v>0.5205233334936844</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2281610089964327</v>
+        <v>0.2304362384921742</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2722289081453363</v>
+        <v>0.2725354317387478</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2824183394340716</v>
+        <v>0.2840154339655017</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3523960732868132</v>
+        <v>0.3503111937929422</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3401447600039961</v>
+        <v>0.3409623327728866</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3405020068278011</v>
+        <v>0.3403983589744798</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3590694115342221</v>
+        <v>0.3587348285514594</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4289701350296377</v>
+        <v>0.4301664417287981</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.571433094972482</v>
+        <v>0.5729991524108591</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4632508168491946</v>
+        <v>0.4650782105302971</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4854240452187947</v>
+        <v>0.4870077235316965</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5803733336500241</v>
+        <v>0.5775466745230451</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.264224326911613</v>
+        <v>0.2647806373830752</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3082199852475466</v>
+        <v>0.3095631556805039</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3209615731084216</v>
+        <v>0.3228787676384287</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3867065415262689</v>
+        <v>0.3839226392763311</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3713513505623651</v>
+        <v>0.3711302646027516</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3695393808368247</v>
+        <v>0.369652865395546</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3895681009972797</v>
+        <v>0.3888698751058705</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4593680289834658</v>
+        <v>0.4608267396719269</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>490894</v>
+        <v>489235</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>524270</v>
+        <v>524619</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>418665</v>
+        <v>418585</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>305538</v>
+        <v>305003</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>417332</v>
+        <v>419055</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>499827</v>
+        <v>501794</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>392581</v>
+        <v>399466</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>391311</v>
+        <v>390379</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>923040</v>
+        <v>924326</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1044916</v>
+        <v>1044480</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>829178</v>
+        <v>831509</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>705035</v>
+        <v>705259</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>532750</v>
+        <v>532147</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>578208</v>
+        <v>576599</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>464992</v>
+        <v>461262</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>336751</v>
+        <v>336334</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>481454</v>
+        <v>485088</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>571836</v>
+        <v>574832</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>458407</v>
+        <v>464745</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>429736</v>
+        <v>432475</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1003444</v>
+        <v>1004289</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1131278</v>
+        <v>1134024</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>907986</v>
+        <v>908904</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>757434</v>
+        <v>758554</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>148503</v>
+        <v>149253</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>246487</v>
+        <v>246869</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>354482</v>
+        <v>358928</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>395245</v>
+        <v>392735</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>69524</v>
+        <v>69329</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>148379</v>
+        <v>145430</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>231961</v>
+        <v>226700</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>285095</v>
+        <v>287244</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>227201</v>
+        <v>225365</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>404195</v>
+        <v>408079</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>603768</v>
+        <v>605907</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>693370</v>
+        <v>698878</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>192041</v>
+        <v>191857</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>306379</v>
+        <v>306777</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>422776</v>
+        <v>422526</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>465420</v>
+        <v>462738</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>106819</v>
+        <v>105554</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>200273</v>
+        <v>195770</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>289530</v>
+        <v>288159</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>337331</v>
+        <v>338893</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>287783</v>
+        <v>285112</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>486244</v>
+        <v>489679</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>691370</v>
+        <v>696793</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>780870</v>
+        <v>784561</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>49604</v>
+        <v>48839</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>33236</v>
+        <v>33727</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>55758</v>
+        <v>55245</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>106792</v>
+        <v>107512</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>30226</v>
+        <v>30735</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>25444</v>
+        <v>24766</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>41256</v>
+        <v>39217</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>73471</v>
+        <v>72865</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>82284</v>
+        <v>84927</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>62938</v>
+        <v>65611</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>102061</v>
+        <v>103733</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>187453</v>
+        <v>188833</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>73652</v>
+        <v>73112</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>58270</v>
+        <v>59838</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>83700</v>
+        <v>82871</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>138899</v>
+        <v>139318</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>54248</v>
+        <v>53310</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>48583</v>
+        <v>49211</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>67554</v>
+        <v>67059</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>97755</v>
+        <v>99345</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>118011</v>
+        <v>120002</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>99204</v>
+        <v>100790</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>141926</v>
+        <v>141795</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>228447</v>
+        <v>229754</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>708822</v>
+        <v>709147</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>825827</v>
+        <v>828952</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>850428</v>
+        <v>851576</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>826172</v>
+        <v>823631</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>535389</v>
+        <v>540728</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>699745</v>
+        <v>700533</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>692143</v>
+        <v>696057</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>773785</v>
+        <v>769207</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1260537</v>
+        <v>1263567</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1548859</v>
+        <v>1548387</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1574072</v>
+        <v>1572605</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1620690</v>
+        <v>1625210</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>776774</v>
+        <v>778902</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>916459</v>
+        <v>920074</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>938316</v>
+        <v>941378</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>918333</v>
+        <v>913860</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>620013</v>
+        <v>621319</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>792257</v>
+        <v>795710</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>786603</v>
+        <v>791302</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>849123</v>
+        <v>843010</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1376185</v>
+        <v>1375365</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1680942</v>
+        <v>1681458</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1707770</v>
+        <v>1704709</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1735537</v>
+        <v>1741048</v>
       </c>
     </row>
     <row r="20">
